--- a/data/trans_orig/IP07A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98679D8C-0B0E-4EBB-98F0-26AA40AF4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27945DBE-6F0A-4462-929B-87432BACBB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70218479-B286-4684-8FC1-66281137A36B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4509A55C-5951-49CE-89E8-B16B30A71684}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="617">
   <si>
     <t>Menores según frecuencia de sentirse triste en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -89,1822 +89,1807 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>10,18%</t>
+    <t>10,56%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>24,78%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>18,91%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FD0DCF-C3DF-44EC-A6F2-8FAEA9EE3477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F6D457-DE51-4D09-A5B7-E2D41D093D52}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2817,10 +2802,10 @@
         <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2829,13 +2814,13 @@
         <v>4000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2835,13 @@
         <v>25068</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -2865,13 +2850,13 @@
         <v>25820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -2880,13 +2865,13 @@
         <v>50889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2886,13 @@
         <v>75442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -2916,13 +2901,13 @@
         <v>64558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -2931,13 +2916,13 @@
         <v>140000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2937,13 @@
         <v>136124</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -2967,13 +2952,13 @@
         <v>110419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>367</v>
@@ -2982,13 +2967,13 @@
         <v>246543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3029,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3041,13 @@
         <v>614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3071,13 +3056,13 @@
         <v>1476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3086,13 +3071,13 @@
         <v>2089</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3122,13 +3107,13 @@
         <v>1525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3137,13 +3122,13 @@
         <v>1525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3143,13 @@
         <v>11280</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -3173,13 +3158,13 @@
         <v>10976</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -3188,13 +3173,13 @@
         <v>22256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3194,13 @@
         <v>20086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -3224,13 +3209,13 @@
         <v>20679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -3239,13 +3224,13 @@
         <v>40765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3245,13 @@
         <v>28415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3275,13 +3260,13 @@
         <v>32199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -3290,13 +3275,13 @@
         <v>60614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3349,13 @@
         <v>1263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3379,13 +3364,13 @@
         <v>3503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3394,13 +3379,13 @@
         <v>4766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3400,13 @@
         <v>1365</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3430,13 +3415,13 @@
         <v>5535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3445,13 +3430,13 @@
         <v>6900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3451,13 @@
         <v>47465</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -3481,13 +3466,13 @@
         <v>49182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>142</v>
@@ -3496,13 +3481,13 @@
         <v>96646</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3502,13 @@
         <v>109785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>159</v>
@@ -3532,13 +3517,13 @@
         <v>103900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -3547,13 +3532,13 @@
         <v>213685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3553,13 @@
         <v>185710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>233</v>
@@ -3583,13 +3568,13 @@
         <v>159525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>512</v>
@@ -3598,13 +3583,13 @@
         <v>345235</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3645,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3679,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F2DBF-DEBB-4BB5-A1B0-5A6DD0049469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83687259-B73D-444C-AC46-BFADA68DC238}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3696,7 +3681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3809,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3824,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3854,13 +3839,13 @@
         <v>607</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3869,13 +3854,13 @@
         <v>1253</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3884,13 +3869,13 @@
         <v>1860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3890,13 @@
         <v>5833</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3920,13 +3905,13 @@
         <v>11140</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -3935,13 +3920,13 @@
         <v>16973</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3941,13 @@
         <v>18611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3971,13 +3956,13 @@
         <v>16714</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3986,13 +3971,13 @@
         <v>35324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3992,13 @@
         <v>20802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -4022,13 +4007,13 @@
         <v>23976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
@@ -4037,13 +4022,13 @@
         <v>44778</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4096,13 @@
         <v>2690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4126,13 +4111,13 @@
         <v>5500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4141,13 +4126,13 @@
         <v>8189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4147,13 @@
         <v>5073</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4177,13 +4162,13 @@
         <v>5287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4192,13 +4177,13 @@
         <v>10360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4198,13 @@
         <v>43577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -4228,13 +4213,13 @@
         <v>30812</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -4243,13 +4228,13 @@
         <v>74388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4249,13 @@
         <v>65199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -4279,13 +4264,13 @@
         <v>70734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
@@ -4294,13 +4279,13 @@
         <v>135932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4300,13 @@
         <v>112185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -4330,13 +4315,13 @@
         <v>93812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -4345,13 +4330,13 @@
         <v>205997</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4392,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4419,13 +4404,13 @@
         <v>1408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4434,13 +4419,13 @@
         <v>627</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4449,13 +4434,13 @@
         <v>2035</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4485,13 +4470,13 @@
         <v>675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4500,13 +4485,13 @@
         <v>675</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,10 +4506,10 @@
         <v>14251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>269</v>
@@ -4557,7 +4542,7 @@
         <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4557,13 @@
         <v>18345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4587,13 +4572,13 @@
         <v>19917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4602,13 +4587,13 @@
         <v>38262</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4608,13 @@
         <v>23929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4638,13 +4623,13 @@
         <v>27777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -4653,13 +4638,13 @@
         <v>51706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4712,13 @@
         <v>4098</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4742,13 +4727,13 @@
         <v>6126</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4757,13 +4742,13 @@
         <v>10224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4763,13 @@
         <v>5680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -4793,13 +4778,13 @@
         <v>7215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -4808,13 +4793,13 @@
         <v>12896</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4814,13 @@
         <v>63661</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -4844,13 +4829,13 @@
         <v>55717</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -4859,13 +4844,13 @@
         <v>119378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4865,13 @@
         <v>102154</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>153</v>
@@ -4895,13 +4880,13 @@
         <v>107365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
@@ -4910,13 +4895,13 @@
         <v>209519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4916,13 @@
         <v>156916</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>204</v>
@@ -4946,13 +4931,13 @@
         <v>145565</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>433</v>
@@ -4961,13 +4946,13 @@
         <v>302481</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5008,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5042,7 +5027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A79B11-3EF7-4A6B-AEBC-C0FDCBC81D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A678474-1BA3-428E-A95E-9DDBB62FB86A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5059,7 +5044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5166,13 +5151,13 @@
         <v>891</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5187,7 +5172,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5196,13 +5181,13 @@
         <v>891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5202,13 @@
         <v>2135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5238,7 +5223,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5247,13 +5232,13 @@
         <v>2135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5253,13 @@
         <v>3070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5283,13 +5268,13 @@
         <v>4700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -5298,13 +5283,13 @@
         <v>7770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5304,13 @@
         <v>8383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5334,13 +5319,13 @@
         <v>12929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5349,13 +5334,13 @@
         <v>21312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5355,13 @@
         <v>22159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5385,13 +5370,13 @@
         <v>14185</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -5400,13 +5385,13 @@
         <v>36344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5459,13 @@
         <v>2892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5489,13 +5474,13 @@
         <v>1348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5504,13 +5489,13 @@
         <v>4240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5510,13 @@
         <v>6625</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5540,13 +5525,13 @@
         <v>3814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -5555,13 +5540,13 @@
         <v>10439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5561,13 @@
         <v>24551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -5591,13 +5576,13 @@
         <v>36631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -5606,13 +5591,13 @@
         <v>61183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5612,13 @@
         <v>74231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -5642,13 +5627,13 @@
         <v>73746</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -5657,13 +5642,13 @@
         <v>147977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5663,13 @@
         <v>138362</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -5693,13 +5678,13 @@
         <v>135020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -5708,13 +5693,13 @@
         <v>273382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +5755,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5788,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5797,13 +5782,13 @@
         <v>724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5812,13 +5797,13 @@
         <v>724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5818,13 @@
         <v>1972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5848,13 +5833,13 @@
         <v>1356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5863,13 +5848,13 @@
         <v>3328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5869,13 @@
         <v>7962</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -5899,13 +5884,13 @@
         <v>12077</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5914,13 +5899,13 @@
         <v>20039</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5920,13 @@
         <v>28648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -5950,13 +5935,13 @@
         <v>24944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -5965,13 +5950,13 @@
         <v>53592</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5971,13 @@
         <v>39479</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -6001,13 +5986,13 @@
         <v>35297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -6016,13 +6001,13 @@
         <v>74776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6075,13 @@
         <v>3783</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -6105,13 +6090,13 @@
         <v>2071</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6120,13 +6105,13 @@
         <v>5855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6126,13 @@
         <v>10732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6159,10 +6144,10 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>448</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -6171,10 +6156,10 @@
         <v>15902</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>451</v>
@@ -6198,7 +6183,7 @@
         <v>453</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>454</v>
+        <v>195</v>
       </c>
       <c r="H24" s="7">
         <v>77</v>
@@ -6207,7 +6192,7 @@
         <v>53408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>230</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>455</v>
@@ -6222,13 +6207,13 @@
         <v>88992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>457</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6228,13 @@
         <v>111263</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -6258,13 +6243,13 @@
         <v>111619</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -6273,13 +6258,13 @@
         <v>222882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6279,13 @@
         <v>200000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>266</v>
@@ -6309,13 +6294,13 @@
         <v>184503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>199</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>539</v>
@@ -6324,13 +6309,13 @@
         <v>384503</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,7 +6371,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6405,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28B195-5768-4AFD-AD2C-AA9D9032AA65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5440DF3-70B6-4BE1-989A-2F47E38C1B5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6422,7 +6407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6535,7 +6520,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6544,13 +6529,13 @@
         <v>3462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6559,13 +6544,13 @@
         <v>3462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6565,13 @@
         <v>969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6595,13 +6580,13 @@
         <v>512</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6610,13 +6595,13 @@
         <v>1481</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6616,13 @@
         <v>2901</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6646,13 +6631,13 @@
         <v>1206</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6661,13 +6646,13 @@
         <v>4107</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6667,13 @@
         <v>7028</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -6697,7 +6682,7 @@
         <v>5235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>498</v>
@@ -6840,10 +6825,10 @@
         <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6852,10 +6837,10 @@
         <v>5931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>515</v>
@@ -6873,7 +6858,7 @@
         <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,10 +6873,10 @@
         <v>5329</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>520</v>
@@ -6918,13 +6903,13 @@
         <v>10614</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6924,13 @@
         <v>18331</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6954,13 +6939,13 @@
         <v>11090</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -6990,7 +6975,7 @@
         <v>72013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>533</v>
@@ -7044,10 +7029,10 @@
         <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -7133,7 +7118,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7145,13 +7130,13 @@
         <v>1641</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7160,13 +7145,13 @@
         <v>1766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7175,13 +7160,13 @@
         <v>3407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7181,13 @@
         <v>772</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7211,7 +7196,7 @@
         <v>605</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -7226,13 +7211,13 @@
         <v>1377</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,7 +7232,7 @@
         <v>7044</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>184</v>
+        <v>558</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>559</v>
@@ -7262,13 +7247,13 @@
         <v>6077</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -7277,7 +7262,7 @@
         <v>13121</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>563</v>
+        <v>414</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>564</v>
@@ -7486,7 +7471,7 @@
         <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>590</v>
@@ -7504,13 +7489,13 @@
         <v>7070</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>591</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>592</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -7519,13 +7504,13 @@
         <v>6402</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>593</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -7534,13 +7519,13 @@
         <v>13472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7540,13 @@
         <v>28277</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>598</v>
+        <v>265</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -7570,13 +7555,13 @@
         <v>18373</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -7585,13 +7570,13 @@
         <v>46650</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7591,13 @@
         <v>93577</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>42</v>
+        <v>603</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -7621,13 +7606,13 @@
         <v>74109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -7636,13 +7621,13 @@
         <v>167686</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>612</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7642,13 @@
         <v>277861</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>334</v>
@@ -7672,13 +7657,13 @@
         <v>249773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>664</v>
@@ -7687,13 +7672,13 @@
         <v>527634</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,7 +7734,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27945DBE-6F0A-4462-929B-87432BACBB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3364DAF7-47BB-468A-97B7-78FF743E3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4509A55C-5951-49CE-89E8-B16B30A71684}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{49D17EAE-D990-46BF-95D4-BB8334C26302}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="631">
   <si>
     <t>Menores según frecuencia de sentirse triste en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,6 +74,15 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -83,1813 +92,1846 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2016 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse triste en 2023 (Tasa respuesta: 50,1%)</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F6D457-DE51-4D09-A5B7-E2D41D093D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3571082E-2DC4-4291-B77C-4EF73C3E07DC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2419,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2028</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2434,10 +2476,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2028</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2473,13 +2515,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2488,13 +2530,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -2509,7 +2551,7 @@
         <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -2521,10 +2563,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>11117</v>
+        <v>12385</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -2536,10 +2578,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>12385</v>
+        <v>11117</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -2572,10 +2614,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>14256</v>
+        <v>18664</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -2587,10 +2629,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>18664</v>
+        <v>14256</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>41</v>
@@ -2623,10 +2665,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>21172</v>
+        <v>16907</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -2638,10 +2680,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>16907</v>
+        <v>21172</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>51</v>
@@ -2674,25 +2716,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -2727,34 +2769,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>649</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2763,13 +2805,13 @@
         <v>649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,34 +2820,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3320</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>680</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3320</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2814,13 +2856,13 @@
         <v>4000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,34 +2871,34 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7">
+        <v>25820</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7">
         <v>37</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>25068</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="7">
-        <v>39</v>
-      </c>
-      <c r="I12" s="7">
-        <v>25820</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -2865,13 +2907,13 @@
         <v>50889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,34 +2922,34 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>99</v>
+      </c>
+      <c r="D13" s="7">
+        <v>64558</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="7">
         <v>115</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>75442</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="7">
-        <v>99</v>
-      </c>
-      <c r="I13" s="7">
-        <v>64558</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -2916,13 +2958,13 @@
         <v>140000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,34 +2973,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>162</v>
+      </c>
+      <c r="D14" s="7">
+        <v>110419</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="7">
         <v>205</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>136124</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="7">
-        <v>162</v>
-      </c>
-      <c r="I14" s="7">
-        <v>110419</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>367</v>
@@ -2967,13 +3009,13 @@
         <v>246543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,25 +3024,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204117</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>305</v>
-      </c>
-      <c r="I15" s="7">
-        <v>204117</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -3029,40 +3071,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1476</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>614</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1476</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3071,13 +3113,13 @@
         <v>2089</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,34 +3128,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1525</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1525</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3122,13 +3164,13 @@
         <v>1525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,34 +3179,34 @@
         <v>27</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10976</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11280</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10976</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -3173,13 +3215,13 @@
         <v>22256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,34 +3230,34 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20679</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="7">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>20086</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20679</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -3224,13 +3266,13 @@
         <v>40765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,34 +3281,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>32199</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="7">
         <v>42</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>28415</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32199</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>88</v>
@@ -3275,13 +3317,13 @@
         <v>60614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,25 +3332,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -3343,34 +3385,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3503</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>1263</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3503</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3379,10 +3421,10 @@
         <v>4766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>145</v>
@@ -3394,31 +3436,31 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>1365</v>
+        <v>5535</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>5535</v>
+        <v>1365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>150</v>
@@ -3445,10 +3487,10 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
-        <v>47465</v>
+        <v>49182</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>154</v>
@@ -3460,10 +3502,10 @@
         <v>156</v>
       </c>
       <c r="H24" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="7">
-        <v>49182</v>
+        <v>47465</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>157</v>
@@ -3496,10 +3538,10 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D25" s="7">
-        <v>109785</v>
+        <v>103900</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>163</v>
@@ -3511,10 +3553,10 @@
         <v>165</v>
       </c>
       <c r="H25" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I25" s="7">
-        <v>103900</v>
+        <v>109785</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>166</v>
@@ -3547,10 +3589,10 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="D26" s="7">
-        <v>185710</v>
+        <v>159525</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>172</v>
@@ -3562,10 +3604,10 @@
         <v>174</v>
       </c>
       <c r="H26" s="7">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="I26" s="7">
-        <v>159525</v>
+        <v>185710</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>175</v>
@@ -3574,7 +3616,7 @@
         <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>512</v>
@@ -3583,13 +3625,13 @@
         <v>345235</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,25 +3640,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>477</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321645</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>477</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -3645,7 +3687,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83687259-B73D-444C-AC46-BFADA68DC238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B59C3B-52E8-4917-B1A8-6E0596DD8738}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3681,7 +3723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3788,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3803,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3818,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,34 +3875,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1253</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>607</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1253</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3869,13 +3911,13 @@
         <v>1860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,34 +3926,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11140</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5833</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11140</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -3920,13 +3962,13 @@
         <v>16973</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,34 +3977,34 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16714</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="7">
         <v>26</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>18611</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="7">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7">
-        <v>16714</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3971,13 +4013,13 @@
         <v>35324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,34 +4028,34 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>23976</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="7">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>20802</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="7">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7">
-        <v>23976</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
@@ -4022,13 +4064,13 @@
         <v>44778</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,25 +4079,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -4090,34 +4132,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5500</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2690</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5500</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4126,13 +4168,13 @@
         <v>8189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,31 +4186,31 @@
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>5073</v>
+        <v>5287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>5287</v>
+        <v>5073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4177,13 +4219,13 @@
         <v>10360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,34 +4234,34 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30812</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="7">
         <v>63</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>43577</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44</v>
-      </c>
-      <c r="I12" s="7">
-        <v>30812</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -4228,13 +4270,13 @@
         <v>74388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4285,34 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7">
+        <v>70734</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
         <v>94</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>65199</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="7">
-        <v>103</v>
-      </c>
-      <c r="I13" s="7">
-        <v>70734</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
@@ -4279,13 +4321,13 @@
         <v>135932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,34 +4336,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>132</v>
+      </c>
+      <c r="D14" s="7">
+        <v>93812</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
         <v>165</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>112185</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="7">
-        <v>132</v>
-      </c>
-      <c r="I14" s="7">
-        <v>93812</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -4330,13 +4372,13 @@
         <v>205997</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,25 +4387,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228723</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -4392,40 +4434,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>627</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1408</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>627</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4434,13 +4476,13 @@
         <v>2035</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,34 +4491,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>675</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>675</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4485,13 +4527,13 @@
         <v>675</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,31 +4545,31 @@
         <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>14251</v>
+        <v>13766</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>13766</v>
+        <v>14251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -4536,13 +4578,13 @@
         <v>28017</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,34 +4593,34 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>19917</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="7">
         <v>28</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>18345</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19917</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -4587,13 +4629,13 @@
         <v>38262</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,34 +4644,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7">
+        <v>27777</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" s="7">
         <v>35</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>23929</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" s="7">
-        <v>38</v>
-      </c>
-      <c r="I20" s="7">
-        <v>27777</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -4638,13 +4680,13 @@
         <v>51706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,25 +4695,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7">
+        <v>62763</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>87</v>
-      </c>
-      <c r="I21" s="7">
-        <v>62763</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4706,34 +4748,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6126</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="7">
         <v>6</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>4098</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H22" s="7">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6126</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4742,13 +4784,13 @@
         <v>10224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,34 +4799,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7215</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H23" s="7">
         <v>9</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>5680</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" s="7">
-        <v>11</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7215</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -4793,13 +4835,13 @@
         <v>12896</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,34 +4850,34 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7">
+        <v>55717</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" s="7">
         <v>92</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>63661</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="7">
-        <v>80</v>
-      </c>
-      <c r="I24" s="7">
-        <v>55717</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -4844,13 +4886,13 @@
         <v>119378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,34 +4901,34 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
+        <v>153</v>
+      </c>
+      <c r="D25" s="7">
+        <v>107365</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="7">
         <v>148</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>102154</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H25" s="7">
-        <v>153</v>
-      </c>
-      <c r="I25" s="7">
-        <v>107365</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>301</v>
@@ -4895,13 +4937,13 @@
         <v>209519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,34 +4952,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>204</v>
+      </c>
+      <c r="D26" s="7">
+        <v>145565</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="7">
         <v>229</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>156916</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="7">
-        <v>204</v>
-      </c>
-      <c r="I26" s="7">
-        <v>145565</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>433</v>
@@ -4946,13 +4988,13 @@
         <v>302481</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,25 +5003,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321989</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>332508</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321989</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -5008,7 +5050,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A678474-1BA3-428E-A95E-9DDBB62FB86A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65614B0-9033-4542-9720-CB89A897E249}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5044,7 +5086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5145,34 +5187,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>891</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5181,13 +5223,13 @@
         <v>891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,34 +5238,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>2135</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5232,13 +5274,13 @@
         <v>2135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,34 +5289,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4700</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3070</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4700</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -5283,13 +5325,13 @@
         <v>7770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,34 +5340,34 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12929</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>8383</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12929</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -5334,13 +5376,13 @@
         <v>21312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,34 +5391,34 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14185</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="7">
         <v>31</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>22159</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H8" s="7">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14185</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -5385,13 +5427,13 @@
         <v>36344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,25 +5442,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -5453,34 +5495,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1348</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2892</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1348</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5489,13 +5531,13 @@
         <v>4240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,34 +5546,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3814</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>6625</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3814</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -5540,13 +5582,13 @@
         <v>10439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,34 +5597,34 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36631</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" s="7">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>24551</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36631</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -5591,13 +5633,13 @@
         <v>61183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,34 +5648,34 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>104</v>
+      </c>
+      <c r="D13" s="7">
+        <v>73746</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H13" s="7">
         <v>101</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>74231</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H13" s="7">
-        <v>104</v>
-      </c>
-      <c r="I13" s="7">
-        <v>73746</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -5642,13 +5684,13 @@
         <v>147977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,34 +5699,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>196</v>
+      </c>
+      <c r="D14" s="7">
+        <v>135020</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" s="7">
         <v>188</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>138362</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H14" s="7">
-        <v>196</v>
-      </c>
-      <c r="I14" s="7">
-        <v>135020</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -5693,13 +5735,13 @@
         <v>273382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,25 +5750,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>337</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>246662</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -5755,40 +5797,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>724</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>724</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5797,13 +5839,13 @@
         <v>724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,34 +5854,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1356</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1972</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1356</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5848,13 +5890,13 @@
         <v>3328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,34 +5905,34 @@
         <v>27</v>
       </c>
       <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12077</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7962</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H18" s="7">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12077</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5899,13 +5941,13 @@
         <v>20039</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,34 +5956,34 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7">
+        <v>24944</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H19" s="7">
         <v>40</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>28648</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H19" s="7">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7">
-        <v>24944</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -5950,13 +5992,13 @@
         <v>53592</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,34 +6007,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7">
+        <v>35297</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="7">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>39479</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H20" s="7">
-        <v>49</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35297</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -6001,13 +6043,13 @@
         <v>74776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,25 +6058,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -6069,34 +6111,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2071</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3783</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2071</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6105,13 +6147,13 @@
         <v>5855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,34 +6162,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5169</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="7">
         <v>15</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>10732</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8</v>
-      </c>
-      <c r="I23" s="7">
-        <v>5169</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -6156,13 +6198,13 @@
         <v>15902</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,34 +6213,34 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
+        <v>77</v>
+      </c>
+      <c r="D24" s="7">
+        <v>53408</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="7">
         <v>50</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>35583</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="7">
-        <v>77</v>
-      </c>
-      <c r="I24" s="7">
-        <v>53408</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -6207,13 +6249,13 @@
         <v>88992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,34 +6264,34 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
+        <v>156</v>
+      </c>
+      <c r="D25" s="7">
+        <v>111619</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H25" s="7">
         <v>153</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>111263</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H25" s="7">
-        <v>156</v>
-      </c>
-      <c r="I25" s="7">
-        <v>111619</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -6258,13 +6300,13 @@
         <v>222882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,34 +6315,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>266</v>
+      </c>
+      <c r="D26" s="7">
+        <v>184503</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H26" s="7">
         <v>273</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>200000</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="H26" s="7">
-        <v>266</v>
-      </c>
-      <c r="I26" s="7">
-        <v>184503</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>539</v>
@@ -6309,13 +6351,13 @@
         <v>384503</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,25 +6366,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>510</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>361361</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>510</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -6371,7 +6413,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6390,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5440DF3-70B6-4BE1-989A-2F47E38C1B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C064B112-3CD6-4626-AF99-7FDDFE995DFA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6407,7 +6449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6508,49 +6550,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2512</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3462</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>3462</v>
+        <v>2512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,46 +6604,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>969</v>
+        <v>515</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>512</v>
+        <v>910</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>386</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1481</v>
+        <v>1424</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,49 +6652,49 @@
         <v>27</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1198</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <v>2901</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
       <c r="I6" s="7">
-        <v>1206</v>
+        <v>2983</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>497</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>4107</v>
+        <v>4181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,49 +6703,49 @@
         <v>37</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4908</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>7028</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
       <c r="I7" s="7">
-        <v>5235</v>
+        <v>7191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>12264</v>
+        <v>12099</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,49 +6754,49 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>19450</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H8" s="7">
         <v>22</v>
       </c>
-      <c r="D8" s="7">
-        <v>15722</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H8" s="7">
-        <v>21</v>
-      </c>
       <c r="I8" s="7">
-        <v>17568</v>
+        <v>16451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>33290</v>
+        <v>35900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,25 +6805,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28582</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
-        <v>26621</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7">
-        <v>34</v>
-      </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>27535</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>57</v>
@@ -6796,7 +6838,7 @@
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>54604</v>
+        <v>56116</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -6816,49 +6858,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5437</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
-        <v>9896</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
       <c r="I10" s="7">
-        <v>5931</v>
+        <v>9360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>15827</v>
+        <v>14797</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,49 +6909,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4823</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>5329</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
       <c r="I11" s="7">
-        <v>5285</v>
+        <v>8292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>10614</v>
+        <v>13115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,49 +6960,49 @@
         <v>27</v>
       </c>
       <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10796</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
-        <v>18331</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H12" s="7">
-        <v>15</v>
-      </c>
       <c r="I12" s="7">
-        <v>11090</v>
+        <v>19294</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>535</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>29421</v>
+        <v>30090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,49 +7011,49 @@
         <v>37</v>
       </c>
       <c r="C13" s="7">
+        <v>65</v>
+      </c>
+      <c r="D13" s="7">
+        <v>52434</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H13" s="7">
         <v>81</v>
       </c>
-      <c r="D13" s="7">
-        <v>72013</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="H13" s="7">
-        <v>65</v>
-      </c>
       <c r="I13" s="7">
-        <v>53653</v>
+        <v>71628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
       </c>
       <c r="N13" s="7">
-        <v>125667</v>
+        <v>124061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,49 +7062,49 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>231</v>
+      </c>
+      <c r="D14" s="7">
+        <v>185748</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H14" s="7">
         <v>218</v>
       </c>
-      <c r="D14" s="7">
-        <v>188238</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="H14" s="7">
-        <v>231</v>
-      </c>
       <c r="I14" s="7">
-        <v>172856</v>
+        <v>200255</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>361094</v>
+        <v>386003</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,25 +7113,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>326</v>
+      </c>
+      <c r="D15" s="7">
+        <v>259238</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
-        <v>293808</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="7">
-        <v>326</v>
-      </c>
       <c r="I15" s="7">
-        <v>248816</v>
+        <v>308828</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>57</v>
@@ -7104,7 +7146,7 @@
         <v>659</v>
       </c>
       <c r="N15" s="7">
-        <v>542624</v>
+        <v>568066</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>57</v>
@@ -7118,7 +7160,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7127,46 +7169,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1641</v>
+        <v>1654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1766</v>
+        <v>1609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3407</v>
+        <v>3263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,49 +7217,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>617</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>772</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>605</v>
+        <v>751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,46 +7271,46 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>7044</v>
+        <v>6084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>559</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>6077</v>
+        <v>7085</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>13121</v>
+        <v>13169</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>572</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,49 +7319,49 @@
         <v>37</v>
       </c>
       <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14410</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H19" s="7">
         <v>20</v>
       </c>
-      <c r="D19" s="7">
-        <v>14536</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
       <c r="I19" s="7">
-        <v>15220</v>
+        <v>14480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>29756</v>
+        <v>28890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,49 +7370,49 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7">
+        <v>58016</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H20" s="7">
         <v>90</v>
       </c>
-      <c r="D20" s="7">
-        <v>73901</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="H20" s="7">
-        <v>82</v>
-      </c>
       <c r="I20" s="7">
-        <v>59349</v>
+        <v>79017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>133249</v>
+        <v>137033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,25 +7421,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80781</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>122</v>
       </c>
-      <c r="D21" s="7">
-        <v>97893</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>114</v>
-      </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -7412,7 +7454,7 @@
         <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>180910</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>57</v>
@@ -7432,49 +7474,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9603</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H22" s="7">
         <v>13</v>
       </c>
-      <c r="D22" s="7">
-        <v>11537</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="H22" s="7">
-        <v>12</v>
-      </c>
       <c r="I22" s="7">
-        <v>11159</v>
+        <v>10969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>588</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>22696</v>
+        <v>20571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>597</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,49 +7525,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5955</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
-        <v>7070</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H23" s="7">
-        <v>9</v>
-      </c>
       <c r="I23" s="7">
-        <v>6402</v>
+        <v>9953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>604</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>13472</v>
+        <v>15908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,49 +7576,49 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18077</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H24" s="7">
         <v>31</v>
       </c>
-      <c r="D24" s="7">
-        <v>28277</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
       <c r="I24" s="7">
-        <v>18373</v>
+        <v>29362</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>190</v>
+        <v>609</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
       </c>
       <c r="N24" s="7">
-        <v>46650</v>
+        <v>47440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,49 +7627,49 @@
         <v>37</v>
       </c>
       <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>71752</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H25" s="7">
         <v>107</v>
       </c>
-      <c r="D25" s="7">
-        <v>93577</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="H25" s="7">
-        <v>94</v>
-      </c>
       <c r="I25" s="7">
-        <v>74109</v>
+        <v>93299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>502</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
       </c>
       <c r="N25" s="7">
-        <v>167686</v>
+        <v>165051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,49 +7678,49 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>334</v>
+      </c>
+      <c r="D26" s="7">
+        <v>263214</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H26" s="7">
         <v>330</v>
       </c>
-      <c r="D26" s="7">
-        <v>277861</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="H26" s="7">
-        <v>334</v>
-      </c>
       <c r="I26" s="7">
-        <v>249773</v>
+        <v>295723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="M26" s="7">
         <v>664</v>
       </c>
       <c r="N26" s="7">
-        <v>527634</v>
+        <v>558937</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,25 +7729,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>474</v>
+      </c>
+      <c r="D27" s="7">
+        <v>368601</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>488</v>
       </c>
-      <c r="D27" s="7">
-        <v>418322</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>474</v>
-      </c>
       <c r="I27" s="7">
-        <v>359816</v>
+        <v>439305</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -7720,7 +7762,7 @@
         <v>962</v>
       </c>
       <c r="N27" s="7">
-        <v>778138</v>
+        <v>807906</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>57</v>
@@ -7734,7 +7776,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
